--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/spanking_pro.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/spanking_pro.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
   </si>
   <si>
     <t>arg335124</t>
@@ -45,7 +45,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
   </si>
   <si>
     <t>arg335285</t>
@@ -54,7 +54,7 @@
     <t>arg334893</t>
   </si>
   <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>arg334967</t>
@@ -63,7 +63,7 @@
     <t>arg335098</t>
   </si>
   <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
   </si>
   <si>
     <t>arg336199</t>
@@ -72,7 +72,7 @@
     <t>arg335054</t>
   </si>
   <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>arg335092</t>
@@ -81,13 +81,13 @@
     <t>arg336043</t>
   </si>
   <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg336176</t>
   </si>
   <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
   </si>
   <si>
     <t>arg334921</t>
@@ -96,7 +96,7 @@
     <t>arg335134</t>
   </si>
   <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg335089</t>
@@ -105,34 +105,34 @@
     <t>arg334964</t>
   </si>
   <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
   </si>
   <si>
     <t>arg336563</t>
   </si>
   <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg334919</t>
   </si>
   <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg335097</t>
   </si>
   <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg334922</t>
   </si>
   <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg335034</t>
@@ -141,25 +141,25 @@
     <t>arg336222</t>
   </si>
   <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
   </si>
   <si>
     <t>arg335047</t>
   </si>
   <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
   </si>
   <si>
     <t>arg334938</t>
   </si>
   <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg334973</t>
@@ -168,985 +168,985 @@
     <t>arg336171</t>
   </si>
   <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg334959</t>
   </si>
   <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg334924</t>
   </si>
   <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
   </si>
   <si>
     <t>arg334923</t>
   </si>
   <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg335090</t>
   </si>
   <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg334898</t>
   </si>
   <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
   </si>
   <si>
     <t>arg334920</t>
   </si>
   <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg335094</t>
   </si>
   <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
   </si>
   <si>
     <t>arg334972</t>
   </si>
   <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0,264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
-  </si>
-  <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0,239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
-  </si>
-  <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
+  </si>
+  <si>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57,14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1,23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57,25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67,24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2,19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67,35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
+  </si>
+  <si>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2,23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
+  </si>
+  <si>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86,13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57,59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
+  </si>
+  <si>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13,13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57,15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83,15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43,50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25,11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
+  </si>
+  <si>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29,19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
+  </si>
+  <si>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5,11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
+  </si>
+  <si>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29,35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
   </si>
 </sst>
 </file>
